--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,41 @@
   </si>
   <si>
     <t>BacklogProjectIDs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Space Name: https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Space Name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.backlog.jp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">API Key registered in backlog </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Project ID List: &lt;Project ID&gt;,&lt;Project ID&gt;,…</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>User in charge of task to be processed</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -526,7 +561,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -588,23 +623,35 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -181,10 +181,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BacklogAssigneeIDs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BacklogProjectIDs</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -206,6 +202,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>.backlog.jp</t>
     </r>
@@ -217,6 +214,10 @@
   </si>
   <si>
     <t>Project ID List: &lt;Project ID&gt;,&lt;Project ID&gt;,…</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BacklogAssigneeIDs</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -239,6 +240,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -277,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -558,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -623,32 +625,33 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1637,7 +1640,6 @@
     <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshihiko Miyaichi\Documents\UiPath\ReFramework-Template-Backlog-Transaction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F771E3-09A0-4E44-8625-D1C71AB22BE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EE51FA-9086-42D7-A24D-DD145C6E2358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Project ID List (ProjectID1,ProjectID2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Backlog_SpaceName</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -191,6 +187,34 @@
   </si>
   <si>
     <t>Backlog_AssigneeIDs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backlog Space Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backlog API Key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Assinee ID List (AssineeID1,AssignID2..)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Project ID List (ProjectID1,ProjectID2,..)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Backlog_WorkFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Work folder for download attachments</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Work</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -590,28 +614,47 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
